--- a/results_cnn_subnetworks_evaluation/plv/cnn_validation_SubCM_plv_by_DDPLV.xlsx
+++ b/results_cnn_subnetworks_evaluation/plv/cnn_validation_SubCM_plv_by_DDPLV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\results_cnn_subnetworks_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\results_cnn_subnetworks_evaluation\plv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98929A2E-C079-41E3-8DFB-A2689F739BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925DEB44-87F7-4715-981E-F1BD2A2516A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection_rate_1" sheetId="4" r:id="rId1"/>
@@ -109,6 +109,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -161,7 +162,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1675,7 +1676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
